--- a/Templates/SphereSDDR_single.xlsx
+++ b/Templates/SphereSDDR_single.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFCAF73-9764-43E0-A637-5A6E5A307CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D0816B-453C-431F-9867-A503949F1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6FA4B5BB-1DC3-4572-83AD-EC72E3E99E5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FA4B5BB-1DC3-4572-83AD-EC72E3E99E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>LIBRARY:</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>Photon Heating</t>
+  </si>
+  <si>
+    <t>Neutron Flux at the External surface</t>
+  </si>
+  <si>
+    <t>1e-6 MeV</t>
+  </si>
+  <si>
+    <t>0.1 MeV</t>
+  </si>
+  <si>
+    <t>1 MeV</t>
+  </si>
+  <si>
+    <t>10 MeV</t>
+  </si>
+  <si>
+    <t>20 MeV</t>
   </si>
 </sst>
 </file>
@@ -256,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -405,32 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
         <color indexed="64"/>
@@ -439,66 +431,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -854,6 +786,87 @@
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -866,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -874,34 +887,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,25 +917,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -940,37 +935,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -988,186 +962,414 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1207,6 +1409,71 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1527,71 +1794,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F6398-3AB0-460C-93FC-83EFE72721A1}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="AC71" sqref="AC71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="8.88671875" style="22"/>
-    <col min="3" max="3" width="16" style="23" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="25"/>
-    <col min="6" max="9" width="8.88671875" style="26"/>
-    <col min="10" max="10" width="8.88671875" style="27"/>
-    <col min="11" max="11" width="8.88671875" style="25"/>
-    <col min="12" max="15" width="8.88671875" style="26"/>
-    <col min="16" max="16" width="8.88671875" style="27"/>
-    <col min="17" max="17" width="8.88671875" style="25"/>
-    <col min="18" max="21" width="8.88671875" style="26"/>
-    <col min="22" max="22" width="8.88671875" style="27"/>
-    <col min="23" max="28" width="8.88671875" style="14"/>
-    <col min="29" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="8.88671875" style="107"/>
+    <col min="2" max="2" width="8.88671875" style="143"/>
+    <col min="3" max="3" width="16" style="144" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="145" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="155"/>
+    <col min="6" max="9" width="8.88671875" style="156"/>
+    <col min="10" max="10" width="8.88671875" style="157"/>
+    <col min="11" max="11" width="8.88671875" style="155"/>
+    <col min="12" max="15" width="8.88671875" style="156"/>
+    <col min="16" max="16" width="8.88671875" style="157"/>
+    <col min="17" max="17" width="8.88671875" style="155"/>
+    <col min="18" max="21" width="8.88671875" style="156"/>
+    <col min="22" max="22" width="8.88671875" style="157"/>
+    <col min="23" max="23" width="8.88671875" style="161"/>
+    <col min="24" max="26" width="8.88671875" style="156"/>
+    <col min="27" max="27" width="8.88671875" style="157"/>
+    <col min="28" max="16384" width="8.88671875" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:27" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="100"/>
+      <c r="B1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="61">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104">
         <f>Values!E1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="13"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="100"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+    </row>
+    <row r="3" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="100"/>
+      <c r="B3" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="115"/>
+    </row>
+    <row r="4" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="118"/>
+    </row>
+    <row r="5" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="100"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="118"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="100"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="118"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="100"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="121"/>
+    </row>
+    <row r="8" spans="1:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="122"/>
+      <c r="B8" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="124"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="128"/>
+    </row>
+    <row r="9" spans="1:27" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="122"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="128"/>
+    </row>
+    <row r="10" spans="1:27" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="122"/>
+      <c r="B10" s="135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="139" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="140"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="159"/>
+      <c r="Z11" s="159"/>
+      <c r="AA11" s="160"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="E8:AA8"/>
+    <mergeCell ref="B3:AA7"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE85EB5-8EA3-422E-A507-7126B75850FA}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W9" sqref="W9:AA10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="8.88671875" style="16"/>
+    <col min="3" max="3" width="16" style="17" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="22"/>
+    <col min="6" max="9" width="8.88671875" style="23"/>
+    <col min="10" max="10" width="8.88671875" style="24"/>
+    <col min="11" max="11" width="8.88671875" style="22"/>
+    <col min="12" max="15" width="8.88671875" style="23"/>
+    <col min="16" max="16" width="8.88671875" style="24"/>
+    <col min="17" max="17" width="8.88671875" style="22"/>
+    <col min="18" max="21" width="8.88671875" style="23"/>
+    <col min="22" max="22" width="8.88671875" style="24"/>
+    <col min="23" max="23" width="10.5546875" style="149" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" style="150" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" style="150" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="150"/>
+    <col min="27" max="27" width="8.88671875" style="151"/>
+    <col min="28" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="48">
+        <f>Values!E1</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="11"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+    </row>
+    <row r="2" spans="1:27" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1604,738 +2320,394 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="71"/>
+      <c r="Y2" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+    </row>
+    <row r="3" spans="1:27" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="78"/>
+    </row>
+    <row r="4" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="84"/>
+    </row>
+    <row r="5" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="75"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="75"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="76" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="87"/>
+    </row>
+    <row r="8" spans="1:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="80" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="99"/>
+    </row>
+    <row r="9" spans="1:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="99"/>
+    </row>
+    <row r="10" spans="1:27" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="20"/>
+      <c r="W10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="146"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Q9:V9"/>
+  <mergeCells count="16">
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:U1"/>
-    <mergeCell ref="B3:V7"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="B3:X7"/>
+    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E8:V8"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="E8:AA8"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="W10:AA10">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE85EB5-8EA3-422E-A507-7126B75850FA}">
-  <dimension ref="A1:AE11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="8.88671875" style="22"/>
-    <col min="3" max="3" width="16" style="23" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="35"/>
-    <col min="6" max="9" width="8.88671875" style="36"/>
-    <col min="10" max="10" width="8.88671875" style="37"/>
-    <col min="11" max="11" width="8.88671875" style="35"/>
-    <col min="12" max="15" width="8.88671875" style="36"/>
-    <col min="16" max="16" width="8.88671875" style="37"/>
-    <col min="17" max="17" width="8.88671875" style="35"/>
-    <col min="18" max="21" width="8.88671875" style="36"/>
-    <col min="22" max="22" width="8.88671875" style="37"/>
-    <col min="23" max="24" width="8.88671875" style="14"/>
-    <col min="25" max="25" width="10.44140625" style="14" customWidth="1"/>
-    <col min="26" max="31" width="8.88671875" style="14"/>
-    <col min="32" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="61">
-        <f>Values!E1</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="84"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="85"/>
-    </row>
-    <row r="9" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="B3:V7"/>
-    <mergeCell ref="X3:Y3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E11:V1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="E11:AA1048576">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="between">
       <formula>0.2</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:XFD1048576 Z3:XFD7 A3:W7 A1:XFD2">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2343,213 +2715,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E708A-E056-47F0-B27E-4CDA5BDC09C3}">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="15" style="40" customWidth="1"/>
-    <col min="4" max="4" width="10" style="49" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="51" customWidth="1"/>
-    <col min="6" max="12" width="14.88671875" style="40" customWidth="1"/>
-    <col min="13" max="13" width="22.44140625" style="40" customWidth="1"/>
-    <col min="14" max="15" width="14.88671875" style="40" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="49" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="1" width="4.77734375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="15" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10" style="36" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="38" customWidth="1"/>
+    <col min="6" max="12" width="14.88671875" style="27" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" style="27" customWidth="1"/>
+    <col min="14" max="15" width="14.88671875" style="27" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="61">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="48">
         <f>Values!E1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="13"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="11"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="67"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="71"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="86" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="2:17" s="39" customFormat="1" ht="97.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="2:17" s="26" customFormat="1" ht="97.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="48"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2560,18 +2932,18 @@
     <mergeCell ref="E8:P8"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:P1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"All zeros"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"missed"</formula>
     </cfRule>
   </conditionalFormatting>
